--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,19 +300,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,46,47,48,49,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>103,104,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,48,49,49,50,50,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11">
         <v>500</v>
@@ -1176,56 +1172,42 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="11">
-        <v>500</v>
-      </c>
-      <c r="D9" s="11">
-        <v>600</v>
+      <c r="G9" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>72</v>
+      <c r="B10" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="D10">
-        <v>1500</v>
+        <v>3900</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>3600</v>
-      </c>
-      <c r="D11">
-        <v>3900</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="11">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>35,42,43,44,45,46,47,48,49,49,50,50,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1209,6 +1213,23 @@
       </c>
       <c r="G10" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="11">
+        <v>500</v>
+      </c>
+      <c r="D11" s="11">
+        <v>700</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1248,10 +1248,10 @@
         <v>73</v>
       </c>
       <c r="C12" s="11">
+        <v>100</v>
+      </c>
+      <c r="D12" s="11">
         <v>200</v>
-      </c>
-      <c r="D12" s="11">
-        <v>600</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>59</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1248,10 +1248,10 @@
         <v>73</v>
       </c>
       <c r="C12" s="11">
+        <v>50</v>
+      </c>
+      <c r="D12" s="11">
         <v>100</v>
-      </c>
-      <c r="D12" s="11">
-        <v>200</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>59</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1243,10 +1243,10 @@
         <v>73</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="E12" t="s">
         <v>59</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,18 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,6 +305,10 @@
   </si>
   <si>
     <t>100,101,102,</t>
+  </si>
+  <si>
+    <t>34,36,37,38,39,40,41,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -750,8 +742,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1018,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D2" s="11">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -1077,13 +1069,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="D3" s="11">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -1094,161 +1086,127 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="11">
+        <v>500</v>
+      </c>
+      <c r="D4" s="11">
+        <v>600</v>
+      </c>
+      <c r="E4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="11">
-        <v>130</v>
-      </c>
-      <c r="D4" s="11">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
+      <c r="B5" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="11">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11">
-        <v>500</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>71</v>
+      <c r="B6" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="11">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="D6" s="11">
-        <v>600</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="11">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+      <c r="D7">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="11">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11">
-        <v>50</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>3600</v>
+      </c>
+      <c r="D8">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>1200</v>
-      </c>
-      <c r="D9">
-        <v>1500</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
+      <c r="C9" s="11">
+        <v>500</v>
+      </c>
+      <c r="D9" s="11">
+        <v>700</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" t="s">
         <v>70</v>
       </c>
       <c r="C10">
-        <v>3600</v>
+        <v>600</v>
       </c>
       <c r="D10">
-        <v>3900</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="11">
-        <v>500</v>
-      </c>
-      <c r="D11" s="11">
-        <v>700</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12">
-        <v>600</v>
-      </c>
-      <c r="D12">
         <v>1500</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E10" t="s">
         <v>59</v>
       </c>
     </row>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,18 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +308,10 @@
   </si>
   <si>
     <t>103,104,105,106,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,37,38,39,40,41,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,8 +746,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -791,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1022,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,13 +1056,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C2" s="11">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D2" s="11">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -1081,13 +1073,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="D3" s="11">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -1098,128 +1090,128 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="11">
+        <v>500</v>
+      </c>
+      <c r="D4" s="11">
+        <v>600</v>
+      </c>
+      <c r="E4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="11">
-        <v>130</v>
-      </c>
-      <c r="D4" s="11">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
+      <c r="B5" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="11">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11">
-        <v>500</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>71</v>
+      <c r="B6" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="11">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="D6" s="11">
-        <v>600</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="11">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+      <c r="D7">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="11">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11">
-        <v>50</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>3600</v>
+      </c>
+      <c r="D8">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>1200</v>
-      </c>
-      <c r="D9">
-        <v>1500</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
+      <c r="C9" s="11">
+        <v>500</v>
+      </c>
+      <c r="D9" s="11">
+        <v>700</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" t="s">
         <v>70</v>
       </c>
       <c r="C10">
-        <v>3600</v>
+        <v>600</v>
       </c>
       <c r="D10">
-        <v>3900</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
+        <v>1500</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1227,49 +1219,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="11">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D11" s="11">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12">
-        <v>600</v>
-      </c>
-      <c r="D12">
-        <v>1500</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="11">
-        <v>50</v>
-      </c>
-      <c r="D13" s="11">
-        <v>100</v>
-      </c>
-      <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
     </row>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -746,7 +746,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1059,10 +1059,10 @@
         <v>72</v>
       </c>
       <c r="C2" s="11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D2" s="11">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,7 +311,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,37,38,39,40,41,</t>
+    <t>34,36,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,167 +1067,167 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="11">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D2" s="11">
-        <v>150</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
+      <c r="B3" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="C3" s="11">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="D3" s="11">
-        <v>500</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>68</v>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D4" s="11">
-        <v>600</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
+        <v>250</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>62</v>
+      <c r="B5" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="11">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D5" s="11">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="H5" s="10"/>
+        <v>500</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>63</v>
+      <c r="B6" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="11">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="D6" s="11">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="H6" s="10"/>
+        <v>600</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7">
-        <v>1200</v>
-      </c>
-      <c r="D7">
-        <v>1500</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
+      <c r="B7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8">
-        <v>3600</v>
-      </c>
-      <c r="D8">
-        <v>3900</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="C8" s="11">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11">
+        <v>80</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="11">
-        <v>500</v>
-      </c>
-      <c r="D9" s="11">
-        <v>700</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>59</v>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>70</v>
+      <c r="B10" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C10">
-        <v>600</v>
+        <v>3600</v>
       </c>
       <c r="D10">
-        <v>1500</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
+        <v>3900</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1219,15 +1235,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="11">
+        <v>500</v>
+      </c>
+      <c r="D11" s="11">
+        <v>700</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+      <c r="D12">
+        <v>1500</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C13" s="11">
         <v>50</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D13" s="11">
         <v>100</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
     </row>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1160,10 +1160,10 @@
         <v>62</v>
       </c>
       <c r="C7" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>64</v>
@@ -1179,10 +1179,10 @@
         <v>63</v>
       </c>
       <c r="C8" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D8" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,10 @@
   </si>
   <si>
     <t>100,101,102,</t>
+  </si>
+  <si>
+    <t>103,104,105,106,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1018,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1249,6 +1253,23 @@
         <v>1500</v>
       </c>
       <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
     </row>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1764,7 +1764,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2142,7 +2142,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2169,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>99999</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>99999</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2183,10 +2183,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>99999</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>99999</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -2197,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>99999</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>99999</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,26 +272,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37,38,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>39,40,41,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,23 +320,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>117,118,119,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,122,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123,124,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124,125,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128,129,130,128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,132,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133,134,134,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,136,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,155,156,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,157,158,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,159,160,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +478,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -514,6 +520,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1072,7 +1085,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" activeCellId="1" sqref="A15:XFD15 E30"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1120,7 +1133,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1128,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1137,7 +1150,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1145,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1196,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1215,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="11">
         <v>280</v>
@@ -1232,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="11">
         <v>40</v>
@@ -1251,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="11">
         <v>50</v>
@@ -1342,7 +1355,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C15" s="11">
         <v>2000</v>
@@ -1363,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1668,6 +1681,102 @@
       </c>
       <c r="H12" s="14">
         <v>1606751999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="20">
+        <v>71</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="20">
+        <v>72</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="20">
+        <v>73</v>
+      </c>
+      <c r="D15" s="21">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="20">
+        <v>74</v>
+      </c>
+      <c r="D16" s="21">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
+        <v>5</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1607961599</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1975,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1917,16 +2026,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1934,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>48</v>
@@ -1943,7 +2052,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1951,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>49</v>
@@ -1960,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1968,16 +2077,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1691,7 +1691,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="20">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="21">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="20">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="21">
         <v>2</v>
@@ -1739,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="20">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="21">
         <v>2</v>
@@ -1763,7 +1763,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="20">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="21">
         <v>2</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,10 @@
   </si>
   <si>
     <t>124,125,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" activeCellId="1" sqref="A15:XFD15 E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1333,6 +1337,23 @@
         <v>53</v>
       </c>
     </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1344,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,22 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>128,129,130,128,129,130,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131,132,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133,134,134,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,136,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>34,36,155,156,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,6 +333,22 @@
   </si>
   <si>
     <t>39,40,41,159,160,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1376,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1777,6 +1777,102 @@
       </c>
       <c r="H16" s="20">
         <v>1607961599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15">
+        <v>74</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="15">
+        <v>75</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="15">
+        <v>76</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="15">
+        <v>77</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1608566399</v>
       </c>
     </row>
   </sheetData>
@@ -1974,8 +2070,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2026,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>48</v>
@@ -2043,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>48</v>
@@ -2060,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>49</v>
@@ -2077,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>72</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -356,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,8 +420,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +450,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +491,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -526,6 +539,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1378,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1796,11 +1812,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="15">
-        <v>1607990400</v>
-      </c>
-      <c r="H17" s="15">
-        <v>1608566399</v>
+      <c r="G17" s="22">
+        <v>1608595200</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1820,11 +1836,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="15">
-        <v>1607990400</v>
-      </c>
-      <c r="H18" s="15">
-        <v>1608566399</v>
+      <c r="G18" s="22">
+        <v>1608595200</v>
+      </c>
+      <c r="H18" s="22">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1844,11 +1860,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="15">
-        <v>1607990400</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1608566399</v>
+      <c r="G19" s="22">
+        <v>1608595200</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1868,11 +1884,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="15">
-        <v>1607990400</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1608566399</v>
+      <c r="G20" s="22">
+        <v>1608595200</v>
+      </c>
+      <c r="H20" s="22">
+        <v>1609171199</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2086,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -455,7 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,10 +1813,10 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="22">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H17" s="22">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1837,10 +1837,10 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="22">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H18" s="22">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1861,10 +1861,10 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="22">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H19" s="22">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1885,10 +1885,10 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="22">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H20" s="22">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -455,7 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1813,10 +1813,10 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="22">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H17" s="22">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1837,10 +1837,10 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="22">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H18" s="22">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1861,10 +1861,10 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="22">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H19" s="22">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1885,10 +1885,10 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="22">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H20" s="22">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -344,7 +344,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>166,167,167,</t>
+    <t>166,167,168,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,7 +428,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,13 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +485,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,10 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,6 +523,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,7 +537,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1395,7 +1392,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1603,292 +1600,292 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="17">
         <v>65</v>
       </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="17">
         <v>66</v>
       </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="17">
         <v>67</v>
       </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="D11" s="17">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="17">
         <v>68</v>
       </c>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
         <v>5</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>70</v>
       </c>
-      <c r="D13" s="21">
-        <v>2</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20">
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>71</v>
       </c>
-      <c r="D14" s="21">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20">
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>72</v>
       </c>
-      <c r="D15" s="21">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20">
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>73</v>
       </c>
-      <c r="D16" s="21">
-        <v>2</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20">
+      <c r="F16" s="18"/>
+      <c r="G16" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="21">
         <v>74</v>
       </c>
-      <c r="D17" s="14">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="22">
-        <v>1609804800</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1610380799</v>
+      <c r="D17" s="22">
+        <v>2</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23">
+        <v>1610409600</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1610985599</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="21">
         <v>75</v>
       </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="22">
-        <v>1609804800</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1610380799</v>
+      <c r="D18" s="22">
+        <v>2</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23">
+        <v>1610409600</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1610985599</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="21">
         <v>76</v>
       </c>
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="22">
-        <v>1609804800</v>
-      </c>
-      <c r="H19" s="22">
-        <v>1610380799</v>
+      <c r="D19" s="22">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23">
+        <v>1610409600</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1610985599</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="21">
         <v>77</v>
       </c>
-      <c r="D20" s="14">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="22">
+        <v>2</v>
+      </c>
+      <c r="E20" s="22">
         <v>5</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="22">
-        <v>1609804800</v>
-      </c>
-      <c r="H20" s="22">
-        <v>1610380799</v>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23">
+        <v>1610409600</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1610985599</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2084,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2134,70 +2131,70 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>73</v>
       </c>
     </row>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,15 +420,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +536,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1392,7 +1391,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1810,10 +1809,10 @@
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H17" s="23">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1834,10 +1833,10 @@
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H18" s="23">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1858,10 +1857,10 @@
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="23">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H19" s="23">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1882,10 +1881,10 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="23">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H20" s="23">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -421,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,12 +443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +478,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -535,9 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1391,7 +1382,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1808,11 +1799,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="23">
-        <v>1611014400</v>
-      </c>
-      <c r="H17" s="23">
-        <v>1611590399</v>
+      <c r="G17" s="19">
+        <v>1611619200</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1832,11 +1823,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="23">
-        <v>1611014400</v>
-      </c>
-      <c r="H18" s="23">
-        <v>1611590399</v>
+      <c r="G18" s="19">
+        <v>1611619200</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1856,11 +1847,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="23">
-        <v>1611014400</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1611590399</v>
+      <c r="G19" s="19">
+        <v>1611619200</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1880,11 +1871,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="23">
-        <v>1611014400</v>
-      </c>
-      <c r="H20" s="23">
-        <v>1611590399</v>
+      <c r="G20" s="19">
+        <v>1611619200</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1612195199</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1800,10 +1800,10 @@
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="19">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H17" s="19">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1824,10 +1824,10 @@
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="19">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H18" s="19">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1848,10 +1848,10 @@
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="19">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H19" s="19">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1872,10 +1872,10 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="19">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H20" s="19">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,15 +84,6 @@
   <si>
     <t>min_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>create_weight2</t>
   </si>
   <si>
     <t>create_pro|三个档次的出生率</t>
@@ -220,92 +211,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dead_force_create_index|死亡强制创建标志索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103,104,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,48,49,49,50,50,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,155,156,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,157,158,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,159,160,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>30,40,30</t>
   </si>
   <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20,60,5</t>
   </si>
   <si>
-    <t>dead_force_create_index|死亡强制创建标志索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>max_create_num|最大的创建次数（默认为9999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103,104,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,46,47,48,49,49,50,50,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>create_weight3</t>
   </si>
   <si>
     <t>大</t>
@@ -316,39 +429,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
     <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,155,156,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,157,158,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,159,160,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,8 +552,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,7 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +622,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -508,14 +652,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,13 +659,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -828,25 +986,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -895,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -944,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1001,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,290 +1243,836 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="41.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.25" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="11">
+        <v>71</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="11">
         <v>180</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>220</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="11">
+        <v>71</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="11">
         <v>180</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <v>220</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="11">
+        <v>72</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="11">
         <v>200</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>250</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11">
         <v>300</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>500</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11">
         <v>400</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>600</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="11">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="11">
+        <v>76</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="11">
         <v>280</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>300</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="11">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="11">
         <v>40</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>80</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="11">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="11">
         <v>50</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E10" s="11">
         <v>100</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="11">
         <v>1500</v>
       </c>
-      <c r="D11" s="11">
+      <c r="E11" s="11">
         <v>1800</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="11">
         <v>3000</v>
       </c>
-      <c r="D12" s="11">
+      <c r="E12" s="11">
         <v>3300</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="11">
+        <v>81</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="11">
         <v>4500</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>4800</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="11">
+        <v>82</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11">
         <v>500</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E14" s="11">
         <v>700</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="11">
+        <v>83</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="11">
         <v>2000</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>4000</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="F15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="22">
+        <v>200</v>
+      </c>
+      <c r="E18" s="22">
+        <v>300</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J18" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="22">
+        <v>200</v>
+      </c>
+      <c r="E19" s="22">
+        <v>300</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="22">
+        <v>200</v>
+      </c>
+      <c r="E20" s="22">
+        <v>300</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J20" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="22">
+        <v>200</v>
+      </c>
+      <c r="E21" s="22">
+        <v>300</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J21" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="22">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="22">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J22" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="23">
+        <v>200</v>
+      </c>
+      <c r="E23" s="23">
+        <v>300</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="23">
+        <v>200</v>
+      </c>
+      <c r="E24" s="23">
+        <v>300</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J24" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="23">
+        <v>200</v>
+      </c>
+      <c r="E25" s="23">
+        <v>300</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="23">
+        <v>200</v>
+      </c>
+      <c r="E26" s="23">
+        <v>300</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J26" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="23">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="23">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="24">
+        <v>200</v>
+      </c>
+      <c r="E28" s="24">
+        <v>300</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="29">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="29">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="24">
+        <v>200</v>
+      </c>
+      <c r="E29" s="24">
+        <v>300</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="29">
+        <v>1614038400</v>
+      </c>
+      <c r="J29" s="29">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="24">
+        <v>200</v>
+      </c>
+      <c r="E30" s="24">
+        <v>300</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="29">
+        <v>1614038400</v>
+      </c>
+      <c r="J30" s="29">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="24">
+        <v>200</v>
+      </c>
+      <c r="E31" s="24">
+        <v>300</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="29">
+        <v>1614038400</v>
+      </c>
+      <c r="J31" s="29">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="24">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="24">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="29">
+        <v>1614038400</v>
+      </c>
+      <c r="J32" s="29">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="19"/>
+      <c r="F33" s="32"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="19"/>
+      <c r="F34" s="32"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="19"/>
+      <c r="F35" s="32"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1379,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1399,28 +2103,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1428,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -1452,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6">
         <v>16</v>
@@ -1476,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6">
         <v>17</v>
@@ -1502,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -1526,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1549,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -1572,7 +2276,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -1590,293 +2294,277 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="13">
         <v>65</v>
       </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18">
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13">
         <v>66</v>
       </c>
-      <c r="D10" s="17">
-        <v>2</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+    <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="17">
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="13">
         <v>67</v>
       </c>
-      <c r="D11" s="17">
-        <v>2</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18">
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+    <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13">
         <v>68</v>
       </c>
-      <c r="D12" s="17">
-        <v>2</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
         <v>5</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15">
         <v>70</v>
       </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19">
+      <c r="D13" s="14">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="15">
         <v>71</v>
       </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19">
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="15">
         <v>72</v>
       </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19">
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="15">
         <v>73</v>
       </c>
-      <c r="D16" s="18">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="14">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14">
         <v>5</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19">
+      <c r="F16" s="14"/>
+      <c r="G16" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="15">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
-        <v>16</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="21">
-        <v>74</v>
-      </c>
-      <c r="D17" s="22">
-        <v>2</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="19">
-        <v>1612224000</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1612799999</v>
-      </c>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
-        <v>17</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="21">
-        <v>75</v>
-      </c>
-      <c r="D18" s="22">
-        <v>2</v>
-      </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="19">
-        <v>1612224000</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1612799999</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="21">
-        <v>76</v>
-      </c>
-      <c r="D19" s="22">
-        <v>2</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="19">
-        <v>1612224000</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1612799999</v>
-      </c>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="21">
-        <v>77</v>
-      </c>
-      <c r="D20" s="22">
-        <v>2</v>
-      </c>
-      <c r="E20" s="22">
-        <v>5</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="19">
-        <v>1612224000</v>
-      </c>
-      <c r="H20" s="19">
-        <v>1612799999</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2080,7 +2768,7 @@
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
@@ -2088,117 +2776,123 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>69</v>
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>70</v>
+      <c r="B4" s="17"/>
+      <c r="C4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>71</v>
+      <c r="B5" s="18"/>
+      <c r="C5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>73</v>
+      <c r="B6" s="19"/>
+      <c r="C6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -2538,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2603,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1762,7 +1762,7 @@
         <v>3000</v>
       </c>
       <c r="E22" s="22">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>48</v>
@@ -1902,7 +1902,7 @@
         <v>3000</v>
       </c>
       <c r="E27" s="23">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>48</v>
@@ -2042,7 +2042,7 @@
         <v>3000</v>
       </c>
       <c r="E32" s="24">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>48</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1658,10 +1658,10 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J18" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1686,10 +1686,10 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J19" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1714,10 +1714,10 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J20" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1742,10 +1742,10 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J21" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1762,7 +1762,7 @@
         <v>3000</v>
       </c>
       <c r="E22" s="22">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>48</v>
@@ -1770,10 +1770,10 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J22" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1902,7 +1902,7 @@
         <v>3000</v>
       </c>
       <c r="E27" s="23">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>48</v>
@@ -2042,7 +2042,7 @@
         <v>3000</v>
       </c>
       <c r="E32" s="24">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>48</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1798,7 +1798,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="16">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="J23" s="16">
         <v>1614009599</v>
@@ -1826,7 +1826,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="16">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="J24" s="16">
         <v>1614009599</v>
@@ -1854,7 +1854,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="16">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="J25" s="16">
         <v>1614009599</v>
@@ -1882,7 +1882,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="16">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="J26" s="16">
         <v>1614009599</v>
@@ -1910,7 +1910,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="16">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="J27" s="16">
         <v>1614009599</v>
@@ -1938,7 +1938,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="29">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="J28" s="29">
         <v>1614614399</v>
@@ -1966,7 +1966,7 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="29">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="J29" s="29">
         <v>1614614399</v>
@@ -1994,7 +1994,7 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="29">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="J30" s="29">
         <v>1614614399</v>
@@ -2022,7 +2022,7 @@
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="29">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="J31" s="29">
         <v>1614614399</v>
@@ -2050,7 +2050,7 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="29">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="J32" s="29">
         <v>1614614399</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1798,7 +1798,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="16">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="J23" s="16">
         <v>1614009599</v>
@@ -1826,7 +1826,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="16">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="J24" s="16">
         <v>1614009599</v>
@@ -1854,7 +1854,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="16">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="J25" s="16">
         <v>1614009599</v>
@@ -1882,7 +1882,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="16">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="J26" s="16">
         <v>1614009599</v>
@@ -1910,7 +1910,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="16">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="J27" s="16">
         <v>1614009599</v>
@@ -1938,7 +1938,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="29">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="J28" s="29">
         <v>1614614399</v>
@@ -1966,7 +1966,7 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="29">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="J29" s="29">
         <v>1614614399</v>
@@ -1994,7 +1994,7 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="29">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="J30" s="29">
         <v>1614614399</v>
@@ -2022,7 +2022,7 @@
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="29">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="J31" s="29">
         <v>1614614399</v>
@@ -2050,7 +2050,7 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="29">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="J32" s="29">
         <v>1614614399</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1762,7 +1762,7 @@
         <v>3000</v>
       </c>
       <c r="E22" s="22">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>48</v>
@@ -1902,7 +1902,7 @@
         <v>3000</v>
       </c>
       <c r="E27" s="23">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>48</v>
@@ -2042,7 +2042,7 @@
         <v>3000</v>
       </c>
       <c r="E32" s="24">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>48</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,18 +436,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
   </si>
   <si>
     <t>161,162,163,164,165,166,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>161,162,163,164,165,166,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,31 +467,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>常规活动鱼boss</t>
   </si>
   <si>
     <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +549,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,19 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +600,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,9 +637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -671,23 +646,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1245,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1256,8 +1224,8 @@
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1285,10 +1253,10 @@
       <c r="H1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="21" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1311,8 +1279,8 @@
       <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
@@ -1333,8 +1301,8 @@
       <c r="F3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
@@ -1355,8 +1323,8 @@
       <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
@@ -1438,8 +1406,8 @@
       <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -1481,8 +1449,8 @@
       <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -1549,8 +1517,8 @@
       <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -1571,8 +1539,8 @@
       <c r="F14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -1593,8 +1561,8 @@
       <c r="F15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -1603,7 +1571,7 @@
       <c r="B16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="11">
@@ -1623,7 +1591,7 @@
       <c r="B17" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="11">
@@ -1640,439 +1608,419 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>104</v>
+      <c r="B18" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="22">
+        <v>109</v>
+      </c>
+      <c r="D18" s="24">
         <v>200</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="24">
         <v>300</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J18" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>106</v>
+      <c r="B19" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="22">
+        <v>110</v>
+      </c>
+      <c r="D19" s="24">
         <v>200</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="24">
         <v>300</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J19" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>106</v>
+      <c r="B20" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="22">
+        <v>111</v>
+      </c>
+      <c r="D20" s="24">
         <v>200</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="24">
         <v>300</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J20" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>109</v>
+      <c r="B21" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="22">
+        <v>111</v>
+      </c>
+      <c r="D21" s="24">
         <v>200</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="24">
         <v>300</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J21" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>110</v>
+      <c r="B22" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="22">
+        <v>113</v>
+      </c>
+      <c r="D22" s="24">
         <v>3000</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="24">
         <v>3000</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J22" s="26">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="C23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="22">
         <v>200</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>300</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="16">
+      <c r="I23" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+    <row r="24" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="C24" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="22">
         <v>200</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>300</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="16">
+      <c r="I24" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+    <row r="25" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>200</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>300</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="16">
+      <c r="I25" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="C26" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="22">
         <v>200</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>300</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="16">
+      <c r="I26" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+    <row r="27" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>3000</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>3000</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="16">
+      <c r="I27" s="20">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="20">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+    <row r="28" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="24">
+      <c r="C28" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="22">
         <v>200</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <v>300</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="29">
+      <c r="I28" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+    <row r="29" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="24">
+      <c r="C29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="22">
         <v>200</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="22">
         <v>300</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="29">
+      <c r="I29" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+    <row r="30" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="24">
+      <c r="C30" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="22">
         <v>200</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="22">
         <v>300</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="29">
+      <c r="I30" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+    <row r="31" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="24">
+      <c r="C31" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="22">
         <v>200</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="22">
         <v>300</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="29">
+      <c r="I31" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+    <row r="32" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="24">
+      <c r="C32" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="22">
         <v>3000</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="22">
         <v>3000</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="29">
+      <c r="I32" s="20">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="20">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C33" s="19"/>
-      <c r="F33" s="32"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C34" s="19"/>
-      <c r="F34" s="32"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C35" s="19"/>
-      <c r="F35" s="32"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+    <row r="33" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="18"/>
+      <c r="F33" s="23"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="18"/>
+      <c r="F34" s="23"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="18"/>
+      <c r="F35" s="23"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2529,7 +2477,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="21"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -2539,7 +2487,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="21"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -2549,7 +2497,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2559,7 +2507,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2810,7 +2758,7 @@
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="15" t="s">
         <v>93</v>
       </c>
@@ -2825,7 +2773,7 @@
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="15" t="s">
         <v>93</v>
       </c>
@@ -2840,7 +2788,7 @@
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="15" t="s">
         <v>98</v>
       </c>
@@ -2855,7 +2803,7 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="15" t="s">
         <v>101</v>
       </c>
@@ -2868,28 +2816,28 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1626,10 +1626,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J18" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1654,10 +1654,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J19" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1682,10 +1682,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J20" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1710,10 +1710,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J21" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1738,10 +1738,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J22" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1626,10 +1626,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J18" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1654,10 +1654,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J19" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1682,10 +1682,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J20" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1710,10 +1710,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J21" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1738,10 +1738,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J22" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -282,18 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,155,156,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,157,158,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,159,160,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>83,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,160 +305,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红包鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
-  </si>
-  <si>
-    <t>167,168,169,</t>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,34,36,34,36,155,156,190,191,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,37,38,37,38,157,158,192,193,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,39,40,39,40,41,159,160,194,195,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1254,10 +1254,10 @@
         <v>49</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1265,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1287,10 +1287,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1309,10 +1309,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1331,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -1351,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>58</v>
@@ -1392,7 +1392,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>59</v>
@@ -1414,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>60</v>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>61</v>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
@@ -1480,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>53</v>
@@ -1503,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>53</v>
@@ -1525,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>55</v>
@@ -1547,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>62</v>
@@ -1569,10 +1569,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1581,7 +1581,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1589,10 +1589,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1601,7 +1601,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1609,10 +1609,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1637,10 +1637,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1665,10 +1665,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1693,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1721,10 +1721,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D22" s="24">
         <v>3000</v>
@@ -1749,10 +1749,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D23" s="22">
         <v>200</v>
@@ -1775,10 +1775,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D24" s="22">
         <v>200</v>
@@ -1801,10 +1801,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D25" s="22">
         <v>200</v>
@@ -1827,10 +1827,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D26" s="22">
         <v>200</v>
@@ -1853,10 +1853,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D27" s="22">
         <v>3000</v>
@@ -1879,10 +1879,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D28" s="22">
         <v>200</v>
@@ -1905,10 +1905,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D29" s="22">
         <v>200</v>
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D30" s="22">
         <v>200</v>
@@ -1957,10 +1957,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D31" s="22">
         <v>200</v>
@@ -1983,10 +1983,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D32" s="22">
         <v>3000</v>
@@ -2760,13 +2760,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2775,13 +2775,13 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2790,13 +2790,13 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2805,13 +2805,13 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,34,36,34,36,155,156,190,191,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,37,38,37,38,157,158,192,193,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,39,40,39,40,41,159,160,194,195,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7,8,9,10,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,206 +451,6 @@
   </si>
   <si>
     <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,34,36,34,36,155,156,190,191,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,37,38,37,38,157,158,192,193,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,39,40,39,40,41,159,160,194,195,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1194,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,7 +1213,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1254,10 +1234,10 @@
         <v>49</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1265,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1287,10 +1267,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1309,10 +1289,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1331,9 +1311,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="11">
@@ -1351,9 +1331,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="11">
@@ -1371,10 +1351,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -1392,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1414,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D9" s="11">
         <v>40</v>
@@ -1435,10 +1415,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D10" s="11">
         <v>50</v>
@@ -1457,9 +1437,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="11">
@@ -1480,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>53</v>
@@ -1503,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>53</v>
@@ -1525,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>55</v>
@@ -1547,10 +1527,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="11">
         <v>2000</v>
@@ -1569,10 +1549,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1581,7 +1561,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1589,10 +1569,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1601,7 +1581,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1609,10 +1589,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1626,10 +1606,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J18" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1637,10 +1617,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1654,10 +1634,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J19" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1665,10 +1645,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>99</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1682,10 +1662,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J20" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1693,10 +1673,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1710,10 +1690,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J21" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1721,10 +1701,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" s="24">
         <v>3000</v>
@@ -1738,10 +1718,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J22" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -1749,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D23" s="22">
         <v>200</v>
@@ -1775,10 +1755,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D24" s="22">
         <v>200</v>
@@ -1801,10 +1781,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="22">
         <v>200</v>
@@ -1827,10 +1807,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" s="22">
         <v>200</v>
@@ -1853,10 +1833,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="22">
         <v>3000</v>
@@ -1879,10 +1859,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="22">
         <v>200</v>
@@ -1905,10 +1885,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D29" s="22">
         <v>200</v>
@@ -1931,10 +1911,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="22">
         <v>200</v>
@@ -1957,10 +1937,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="22">
         <v>200</v>
@@ -1983,10 +1963,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="22">
         <v>3000</v>
@@ -2760,13 +2740,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2775,13 +2755,13 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2790,13 +2770,13 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2805,13 +2785,13 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1193,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1606,10 +1606,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J18" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1634,10 +1634,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J19" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1662,10 +1662,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J20" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1690,10 +1690,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J21" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1718,10 +1718,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J22" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1707,10 +1707,10 @@
         <v>101</v>
       </c>
       <c r="D22" s="24">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="24">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>48</v>

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,10 @@
   </si>
   <si>
     <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,7 +1198,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1606,10 +1610,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J18" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1634,10 +1638,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J19" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1662,10 +1666,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J20" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1690,10 +1694,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J21" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1713,15 +1717,15 @@
         <v>2400</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J22" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -299,12 +299,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,13 +317,6 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -340,7 +333,118 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,105 +459,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,26 +474,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -509,19 +502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +568,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,13 +616,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,37 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,61 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,60 +712,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -783,15 +722,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,17 +745,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,138 +827,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -984,20 +977,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1009,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
@@ -1616,7 +1609,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2025,10 +2018,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J18" s="9">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2053,10 +2046,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J19" s="9">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2081,10 +2074,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J20" s="9">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2109,10 +2102,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J21" s="9">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2137,10 +2130,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J22" s="9">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -299,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -346,14 +346,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -370,30 +368,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -401,6 +379,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,46 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,6 +421,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -474,8 +436,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,7 +508,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,13 +586,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,139 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +712,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -722,6 +761,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,30 +794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -784,41 +808,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,127 +827,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,8 +957,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I19" sqref="I19:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2018,10 +2018,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J18" s="9">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2046,10 +2046,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J19" s="9">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2074,10 +2074,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J20" s="9">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2102,10 +2102,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J21" s="9">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2130,10 +2130,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J22" s="9">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -299,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -333,7 +333,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,21 +366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,7 +376,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,24 +405,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,9 +427,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,6 +450,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -444,38 +474,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,19 +502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,13 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,13 +574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +598,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,97 +670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,30 +727,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -767,8 +743,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -776,10 +754,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -808,17 +793,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,138 +827,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:J22"/>
+      <selection activeCell="I18" sqref="I18:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2018,10 +2018,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J18" s="9">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2046,10 +2046,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J19" s="9">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2074,10 +2074,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J20" s="9">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2102,10 +2102,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J21" s="9">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2130,10 +2130,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J22" s="9">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -302,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -342,6 +342,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -349,25 +357,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,7 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,7 +385,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +430,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -413,25 +460,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,31 +477,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,14 +486,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +518,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,31 +584,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,67 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,7 +662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,18 +693,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,21 +760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -799,11 +784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,17 +809,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,138 +837,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1621,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2031,10 +2031,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J18" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2059,10 +2059,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J19" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2087,10 +2087,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J20" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2115,10 +2115,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J21" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2431,10 +2431,10 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J33" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="3:10">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -302,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -356,9 +356,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,14 +452,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,91 +484,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +512,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,25 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,19 +590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,85 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +638,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,13 +668,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,15 +732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -756,17 +747,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,15 +761,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,6 +780,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -818,157 +803,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2031,10 +2031,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J18" s="9">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2059,10 +2059,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J19" s="9">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2087,10 +2087,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J20" s="9">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2115,10 +2115,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J21" s="9">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2143,10 +2143,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J22" s="9">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -302,9 +302,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -342,32 +342,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -377,13 +356,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -391,25 +364,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,43 +380,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -477,8 +402,60 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,6 +463,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +536,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,49 +620,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,97 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,41 +721,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,16 +742,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,10 +773,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -818,17 +788,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,138 +837,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -987,10 +987,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="10">
-        <v>1623167999</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1623254399</v>
+      <c r="I22" s="9">
+        <v>1624924800</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1625500799</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -2168,10 +2168,10 @@
       <c r="F23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2194,10 +2194,10 @@
       <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2220,10 +2220,10 @@
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2246,10 +2246,10 @@
       <c r="F26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2272,10 +2272,10 @@
       <c r="F27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2298,10 +2298,10 @@
       <c r="F28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <v>1614614399</v>
       </c>
     </row>
@@ -2324,10 +2324,10 @@
       <c r="F29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="10">
         <v>1614614399</v>
       </c>
     </row>
@@ -2350,10 +2350,10 @@
       <c r="F30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="10">
         <v>1614614399</v>
       </c>
     </row>
@@ -2376,10 +2376,10 @@
       <c r="F31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <v>1614614399</v>
       </c>
     </row>
@@ -2402,10 +2402,10 @@
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="10">
         <v>1614614399</v>
       </c>
     </row>
@@ -2430,11 +2430,11 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="9">
-        <v>1624924800</v>
-      </c>
-      <c r="J33" s="9">
-        <v>1625500799</v>
+      <c r="I33" s="11">
+        <v>1623167999</v>
+      </c>
+      <c r="J33" s="11">
+        <v>1623254399</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="3:10">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="88">
   <si>
     <t>no</t>
   </si>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,10 +1413,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J18" s="9">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J19" s="9">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1469,10 +1469,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J20" s="9">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1497,10 +1497,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J21" s="9">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>no</t>
   </si>
@@ -324,6 +324,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -331,30 +332,35 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1020,7 +1026,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I18" sqref="I18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,10 +1419,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J18" s="9">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1441,10 +1447,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J19" s="9">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1469,10 +1475,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J20" s="9">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1497,10 +1503,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J21" s="9">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1525,10 +1531,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1627344000</v>
+        <v>1628553600</v>
       </c>
       <c r="J22" s="9">
-        <v>1627919999</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J22"/>
+      <selection activeCell="J20" sqref="J19:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J18" s="9">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J19" s="9">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J20" s="9">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J21" s="9">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J22" s="9">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J19:J20"/>
+      <selection activeCell="I18" sqref="I18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J18" s="9">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J19" s="9">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J20" s="9">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J21" s="9">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J22" s="9">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J18" s="9">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J19" s="9">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J20" s="9">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J21" s="9">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J22" s="9">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J18" s="9">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J19" s="9">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J20" s="9">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J21" s="9">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J22" s="9">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_yutu_random_5.xlsx
+++ b/config_debug/fish_3d_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J18" s="9">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J19" s="9">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J20" s="9">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J21" s="9">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J22" s="9">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
